--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586CFD9D-878E-47B6-A492-47E94FCFD5D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="5925" windowWidth="27645" windowHeight="16935" activeTab="1"/>
+    <workbookView xWindow="945" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="compact" sheetId="1" r:id="rId1"/>
-    <sheet name="compactvector" sheetId="3" r:id="rId2"/>
-    <sheet name="missing" sheetId="2" r:id="rId3"/>
+    <sheet name="Missing" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Pweight</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SMITH</t>
   </si>
@@ -40,27 +33,9 @@
     <t>JOHNSON</t>
   </si>
   <si>
-    <t>WILLIAMS</t>
-  </si>
-  <si>
-    <t>JONES</t>
-  </si>
-  <si>
-    <t>BROWN</t>
-  </si>
-  <si>
-    <t>DAVIS</t>
-  </si>
-  <si>
     <t>MILLER</t>
   </si>
   <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>MOORE</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -95,69 +70,13 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vec2[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a;b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b;c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c;d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d;e;f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e;g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f;g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;5;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;5;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;3;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5;1;2;5;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;54;5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vec[Int]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -509,204 +428,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.69899999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.312</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -714,13 +464,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -728,15 +478,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>35</v>
@@ -744,10 +494,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -755,7 +505,7 @@
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586CFD9D-878E-47B6-A492-47E94FCFD5D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23196B-999E-4988-8DFD-9BC16A6C1A50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SMITH</t>
   </si>
@@ -57,19 +58,24 @@
     <t>after</t>
   </si>
   <si>
+    <t>Data.A</t>
+  </si>
+  <si>
+    <t>Data.B</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
     <t>AllNull</t>
-  </si>
-  <si>
-    <t>Data.A</t>
-  </si>
-  <si>
-    <t>Data.B</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b.c.d.e.f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It can be done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -442,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -481,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -503,9 +509,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DFBF20-ADF8-4C70-8AA9-B3287647E6E2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23196B-999E-4988-8DFD-9BC16A6C1A50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="promotion" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>SMITH</t>
   </si>
@@ -76,13 +76,41 @@
   </si>
   <si>
     <t>It can be done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1.A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1.B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2.A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2.B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3.A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3.B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3.C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -434,10 +462,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -517,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DFBF20-ADF8-4C70-8AA9-B3287647E6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -540,4 +568,66 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="promotion" sheetId="4" r:id="rId3"/>
+    <sheet name="mergeA" sheetId="5" r:id="rId4"/>
+    <sheet name="mergeB" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>SMITH</t>
   </si>
@@ -104,6 +106,130 @@
   </si>
   <si>
     <t>t3.C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beyond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jonas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>York</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Los</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angeles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property.[1,A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property.[2,A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>think</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anything</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address.State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address.City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>555;1111;2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>555;3333;4444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>555;5555;6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>555;7777;8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address.TEL(Int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -630,4 +756,179 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="promotion" sheetId="4" r:id="rId3"/>
     <sheet name="mergeA" sheetId="5" r:id="rId4"/>
     <sheet name="mergeB" sheetId="6" r:id="rId5"/>
+    <sheet name="adddelim" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>SMITH</t>
   </si>
@@ -230,6 +231,34 @@
   </si>
   <si>
     <t>Address.TEL(Int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array_1()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b,c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d,e,f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array_2(Int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +730,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -762,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -931,4 +960,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70E9FC-BB4F-45EA-91B7-59A60A9C43A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,6 @@
     <sheet name="promotion" sheetId="4" r:id="rId3"/>
     <sheet name="mergeA" sheetId="5" r:id="rId4"/>
     <sheet name="mergeB" sheetId="6" r:id="rId5"/>
-    <sheet name="adddelim" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>SMITH</t>
   </si>
@@ -231,41 +231,13 @@
   </si>
   <si>
     <t>Address.TEL(Int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array_1()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a,b,c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d,e,f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array_2(Int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -617,16 +589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -640,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -651,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -665,7 +637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -673,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -681,7 +653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -700,21 +672,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -726,16 +698,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -758,7 +730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -788,19 +760,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -814,7 +786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -828,7 +800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -842,7 +814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -856,7 +828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -877,16 +849,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -900,7 +872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -914,7 +886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -928,7 +900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -942,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -954,55 +926,6 @@
       </c>
       <c r="D5" t="s">
         <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70E9FC-BB4F-45EA-91B7-59A60A9C43A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8368E-E2FB-4565-910E-ABD6AF149892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="promotion" sheetId="4" r:id="rId3"/>
     <sheet name="mergeA" sheetId="5" r:id="rId4"/>
     <sheet name="mergeB" sheetId="6" r:id="rId5"/>
+    <sheet name="mergeC" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>SMITH</t>
   </si>
@@ -40,9 +41,6 @@
     <t>MILLER</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>should't read this</t>
   </si>
   <si>
@@ -61,59 +59,13 @@
     <t>after</t>
   </si>
   <si>
-    <t>Data.A</t>
-  </si>
-  <si>
-    <t>Data.B</t>
-  </si>
-  <si>
     <t>issue</t>
   </si>
   <si>
-    <t>AllNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.b.c.d.e.f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It can be done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t1.A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1.B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2.A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2.B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3.A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3.B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3.C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Some</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,18 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property.[1,A]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property.[2,A]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,14 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Address.State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address.City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>555;1111;2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,7 +162,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Address.TEL(Int)</t>
+    <t>/Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Property/1/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Property/2/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Address/State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Address/City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Address/TEL(Int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/t1/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/t1/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/t2/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/t2/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/t3/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/t3/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/t3/C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/b/c/d/e/f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Data/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/AllNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Data/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Address/TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9999-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011-9999-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012-9999-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013-9999-9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,23 +613,23 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -617,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -628,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -639,10 +659,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -655,10 +675,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -676,19 +696,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -702,32 +722,32 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -764,7 +784,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -774,16 +794,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -791,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -805,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -819,13 +839,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -833,13 +853,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -852,15 +872,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
@@ -877,13 +897,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -891,13 +911,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -905,13 +925,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -919,17 +939,75 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDE330C-4781-4ED7-B0CF-DC9566A7EA53}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8368E-E2FB-4565-910E-ABD6AF149892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16250FB1-05D7-494A-9D5B-2098FA7A9011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>SMITH</t>
   </si>
@@ -178,18 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Address/State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Address/City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Address/TEL(Int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/t1/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +239,22 @@
   </si>
   <si>
     <t>013-9999-9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address/City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address/State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address/TEL::Vector{Int}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +617,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -623,13 +627,13 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -703,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -729,25 +733,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -783,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -794,16 +798,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -959,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDE330C-4781-4ED7-B0CF-DC9566A7EA53}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +974,7 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -978,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -986,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -994,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1002,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/othercase.xlsx
+++ b/test/data/othercase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16250FB1-05D7-494A-9D5B-2098FA7A9011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75A55F-9B45-4ACB-A514-39FBB5A1E8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="4185" windowWidth="21600" windowHeight="11835" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="2" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Address/TEL::Vector{Int}</t>
+    <t>Address/TEL::array{integer}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,12 +617,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -636,7 +636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -661,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -677,7 +677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -700,17 +700,17 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -726,12 +726,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -754,7 +754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -787,16 +787,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.84375" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -810,7 +810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -824,7 +824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -838,7 +838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -852,7 +852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -869,6 +869,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -877,12 +878,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -896,7 +897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -910,7 +911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -924,7 +925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -938,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -963,13 +964,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDE330C-4781-4ED7-B0CF-DC9566A7EA53}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -977,7 +976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -985,7 +984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -993,7 +992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
